--- a/Rabu/Teori Bahasa Automata/Minggu 06 - (Finite State Automata 2)/Tugas.xlsx
+++ b/Rabu/Teori Bahasa Automata/Minggu 06 - (Finite State Automata 2)/Tugas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumen\Kampus\Semester4\Rabu\Teori Bahasa Automata\Minggu 05 - (Finite State Automata 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a64ce842b39af3de/Dokumen/Kampus/Semester4/Rabu/Teori Bahasa Automata/Minggu 06 - (Finite State Automata 2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D1897-3456-4DCF-8A9A-53152F72C2B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F25D1897-3456-4DCF-8A9A-53152F72C2B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70048937-ED03-40AD-9B3F-81C5D4808527}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="3156" windowWidth="16596" windowHeight="9024" activeTab="1" xr2:uid="{146C034D-8E05-450C-AAFE-8A41A19F7300}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{146C034D-8E05-450C-AAFE-8A41A19F7300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23B8D4A-8C1D-438B-9675-B84416F7AC7A}">
   <dimension ref="B2:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F325B96F-C0B2-40B7-836F-4B54BDC26F1C}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
